--- a/Disscussions of excution time/excution time.xlsx
+++ b/Disscussions of excution time/excution time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10480\Desktop\Slimming-2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\neuLab\testProject\new-bug-report\素材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A51107-5D1A-4E38-A9C3-46DCD595EB68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED902CB-4996-44E9-9DD4-3BC2DF52FBEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" xr2:uid="{14A56B54-B286-44BF-8CC8-4E2A4F3B6AD2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16545" xr2:uid="{14A56B54-B286-44BF-8CC8-4E2A4F3B6AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="run time" sheetId="1" r:id="rId1"/>
@@ -39,11 +39,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Slimming-2.0
-Execution Time(s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>JDBL 
 Execution Time(s)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1569,6 +1564,11 @@
   </si>
   <si>
     <t>quick-alarm-master&amp;core</t>
+  </si>
+  <si>
+    <t>Trimming
+Execution Time(s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1969,7 +1969,7 @@
   <dimension ref="A1:D496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1988,15 +1988,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>5.0739999999999998</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>5.13</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>5.1879999999999997</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>5.1909999999999998</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>5.4489999999999998</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="7" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>5.4610000000000003</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="8" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>5.48</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="9" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>5.5469999999999997</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="10" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>5.5860000000000003</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="11" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
         <v>5.6130000000000004</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="12" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
         <v>5.6680000000000001</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="13" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>5.6820000000000004</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="14" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3">
         <v>5.7160000000000002</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="15" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3">
         <v>5.718</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="16" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3">
         <v>5.7270000000000003</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="17" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3">
         <v>5.8220000000000001</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="18" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3">
         <v>5.9189999999999996</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="19" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3">
         <v>6.0549999999999997</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="20" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3">
         <v>6.1150000000000002</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="21" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3">
         <v>6.1509999999999998</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="22" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3">
         <v>6.1529999999999996</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="23" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3">
         <v>6.1680000000000001</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="24" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="3">
         <v>6.1680000000000001</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="25" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="3">
         <v>6.2759999999999998</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="26" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="3">
         <v>6.36</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="27" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="3">
         <v>6.391</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="28" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="3">
         <v>6.4359999999999999</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="29" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="3">
         <v>6.4539999999999997</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="30" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="3">
         <v>6.4969999999999999</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="31" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="3">
         <v>6.5359999999999996</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="32" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="3">
         <v>6.58</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="33" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="3">
         <v>6.6040000000000001</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="34" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3">
         <v>6.7050000000000001</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="35" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>6.7220000000000004</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="36" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="3">
         <v>6.8220000000000001</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="37" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="3">
         <v>6.8250000000000002</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="38" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="3">
         <v>6.9</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="39" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="3">
         <v>6.9320000000000004</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="40" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="3">
         <v>6.95</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="41" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="3">
         <v>6.9790000000000001</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="42" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="3">
         <v>6.9850000000000003</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="43" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="3">
         <v>7.0730000000000004</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="44" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="3">
         <v>7.1890000000000001</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="45" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="3">
         <v>7.3230000000000004</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="46" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="3">
         <v>7.3979999999999997</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="47" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="3">
         <v>7.4729999999999999</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="48" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="3">
         <v>7.4930000000000003</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="49" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="3">
         <v>7.6550000000000002</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="50" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="3">
         <v>7.6639999999999997</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="51" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="3">
         <v>7.75</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="52" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="3">
         <v>7.7930000000000001</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="53" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="3">
         <v>7.798</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="54" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="3">
         <v>7.8579999999999997</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="55" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="3">
         <v>7.9550000000000001</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="56" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="3">
         <v>7.9619999999999997</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="57" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="3">
         <v>8.0009999999999994</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="58" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="3">
         <v>8.0039999999999996</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="59" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="3">
         <v>8.0169999999999995</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="60" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="3">
         <v>8.1660000000000004</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="61" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="3">
         <v>8.1760000000000002</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="62" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="3">
         <v>8.1809999999999992</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="63" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="3">
         <v>8.2040000000000006</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="64" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="3">
         <v>8.2059999999999995</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="65" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="3">
         <v>8.2720000000000002</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="66" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="3">
         <v>8.2739999999999991</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="67" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="3">
         <v>8.3219999999999992</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="68" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="3">
         <v>8.3539999999999992</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="69" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="3">
         <v>8.3699999999999992</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="70" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="3">
         <v>8.4049999999999994</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="71" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="3">
         <v>8.4079999999999995</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="72" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="3">
         <v>8.423</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="73" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="3">
         <v>8.4260000000000002</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="74" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="3">
         <v>8.4420000000000002</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="75" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="3">
         <v>8.4469999999999992</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="76" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="3">
         <v>8.4489999999999998</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="77" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="3">
         <v>8.5180000000000007</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="78" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="3">
         <v>8.5589999999999993</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="79" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="3">
         <v>8.5890000000000004</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="80" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="3">
         <v>8.6509999999999998</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="81" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="3">
         <v>8.66</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="82" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="3">
         <v>8.6769999999999996</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="83" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="3">
         <v>8.6929999999999996</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="84" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="3">
         <v>8.6959999999999997</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="85" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="3">
         <v>8.9209999999999994</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="86" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="3">
         <v>8.9250000000000007</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="87" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="3">
         <v>8.9380000000000006</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="88" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="3">
         <v>8.9740000000000002</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="89" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="3">
         <v>8.9909999999999997</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="90" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="3">
         <v>9.0090000000000003</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="91" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="3">
         <v>9.0239999999999991</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="92" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="3">
         <v>9.0570000000000004</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="93" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="3">
         <v>9.0790000000000006</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="94" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="3">
         <v>9.0830000000000002</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="95" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="3">
         <v>9.1150000000000002</v>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="96" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="3">
         <v>9.1189999999999998</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="97" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="3">
         <v>9.1839999999999993</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="98" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="3">
         <v>9.2889999999999997</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="99" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="3">
         <v>9.3010000000000002</v>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="100" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="3">
         <v>9.3309999999999995</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="101" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="3">
         <v>9.3629999999999995</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="102" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="3">
         <v>9.3659999999999997</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="103" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="3">
         <v>9.391</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="104" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="3">
         <v>9.4760000000000009</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="105" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="3">
         <v>9.4939999999999998</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="106" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="3">
         <v>9.5020000000000007</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="107" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" s="3">
         <v>9.5380000000000003</v>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="108" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" s="3">
         <v>9.5920000000000005</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="109" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" s="3">
         <v>9.6150000000000002</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="110" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" s="3">
         <v>9.6210000000000004</v>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="111" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" s="3">
         <v>9.6449999999999996</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="112" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" s="3">
         <v>9.673</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="113" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" s="3">
         <v>9.6850000000000005</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="114" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114" s="3">
         <v>9.6959999999999997</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="115" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" s="3">
         <v>9.6969999999999992</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="116" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116" s="3">
         <v>9.7379999999999995</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="117" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117" s="3">
         <v>9.7789999999999999</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="118" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B118" s="3">
         <v>9.8350000000000009</v>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="119" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B119" s="3">
         <v>9.8610000000000007</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="120" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120" s="3">
         <v>9.9480000000000004</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="121" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121" s="3">
         <v>10.039</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="122" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122" s="3">
         <v>10.045</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="123" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B123" s="3">
         <v>10.048999999999999</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="124" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124" s="3">
         <v>10.146000000000001</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="125" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" s="3">
         <v>10.18</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="126" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" s="3">
         <v>10.198</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="127" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127" s="3">
         <v>10.199</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="128" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" s="3">
         <v>10.250999999999999</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="129" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" s="3">
         <v>10.430999999999999</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="130" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B130" s="3">
         <v>10.477</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="131" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131" s="3">
         <v>10.492000000000001</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="132" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132" s="3">
         <v>10.595000000000001</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="133" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133" s="3">
         <v>10.605</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="134" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134" s="3">
         <v>10.618</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="135" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B135" s="3">
         <v>10.648</v>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="136" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136" s="3">
         <v>10.706</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="137" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137" s="3">
         <v>10.763999999999999</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="138" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138" s="3">
         <v>11.077999999999999</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="139" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139" s="3">
         <v>11.167</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="140" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140" s="3">
         <v>11.188000000000001</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="141" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141" s="3">
         <v>11.218999999999999</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="142" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142" s="3">
         <v>11.263</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="143" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143" s="3">
         <v>11.32</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="144" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B144" s="3">
         <v>11.365</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="145" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145" s="3">
         <v>11.366</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="146" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146" s="3">
         <v>11.526</v>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="147" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B147" s="3">
         <v>11.553000000000001</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="148" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148" s="3">
         <v>11.571</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="149" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149" s="3">
         <v>11.664999999999999</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="150" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150" s="3">
         <v>11.666</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="151" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151" s="3">
         <v>11.839</v>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="152" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152" s="3">
         <v>11.935</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="153" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B153" s="3">
         <v>12.153</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="154" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B154" s="3">
         <v>12.285</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="155" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B155" s="3">
         <v>12.294</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="156" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B156" s="3">
         <v>12.321999999999999</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="157" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B157" s="3">
         <v>12.367000000000001</v>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="158" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B158" s="3">
         <v>12.393000000000001</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="159" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B159" s="3">
         <v>12.545999999999999</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="160" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B160" s="3">
         <v>12.708</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="161" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B161" s="3">
         <v>12.71</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="162" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B162" s="3">
         <v>12.715</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="163" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B163" s="3">
         <v>12.718</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="164" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B164" s="3">
         <v>12.744999999999999</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="165" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B165" s="3">
         <v>12.776</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="166" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B166" s="3">
         <v>12.837999999999999</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="167" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B167" s="3">
         <v>12.879</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="168" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B168" s="3">
         <v>12.894</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="169" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B169" s="3">
         <v>12.923</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="170" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B170" s="3">
         <v>12.956</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="171" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B171" s="3">
         <v>12.98</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="172" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B172" s="3">
         <v>13.009</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="173" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B173" s="3">
         <v>13.025</v>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="174" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B174" s="3">
         <v>13.057</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="175" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B175" s="3">
         <v>13.058999999999999</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="176" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B176" s="3">
         <v>13.06</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="177" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B177" s="3">
         <v>13.08</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="178" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B178" s="3">
         <v>13.141</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="179" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B179" s="3">
         <v>13.186999999999999</v>
@@ -4488,7 +4488,7 @@
     </row>
     <row r="180" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B180" s="3">
         <v>13.204000000000001</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="181" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B181" s="3">
         <v>13.215</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="182" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B182" s="3">
         <v>13.273999999999999</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="183" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B183" s="3">
         <v>13.287000000000001</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="184" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B184" s="3">
         <v>13.305</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="185" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B185" s="3">
         <v>13.311999999999999</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="186" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B186" s="3">
         <v>13.319000000000001</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="187" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B187" s="3">
         <v>13.337</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="188" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B188" s="3">
         <v>13.366</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="189" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B189" s="3">
         <v>13.367000000000001</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="190" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B190" s="3">
         <v>13.396000000000001</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="191" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B191" s="3">
         <v>13.435</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="192" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B192" s="3">
         <v>13.477</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="193" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B193" s="3">
         <v>13.489000000000001</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="194" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B194" s="3">
         <v>13.563000000000001</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="195" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B195" s="3">
         <v>13.587</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="196" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B196" s="3">
         <v>13.599</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="197" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B197" s="3">
         <v>13.616</v>
@@ -4740,7 +4740,7 @@
     </row>
     <row r="198" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B198" s="3">
         <v>13.637</v>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="199" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B199" s="3">
         <v>13.667999999999999</v>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="200" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B200" s="3">
         <v>13.686999999999999</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="201" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B201" s="3">
         <v>13.701000000000001</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="202" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B202" s="3">
         <v>13.722</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="203" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B203" s="3">
         <v>13.738</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="204" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B204" s="3">
         <v>13.818</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="205" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B205" s="3">
         <v>13.847</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="206" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B206" s="3">
         <v>13.939</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="207" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B207" s="3">
         <v>13.951000000000001</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="208" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B208" s="3">
         <v>13.962</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="209" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B209" s="3">
         <v>13.968</v>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="210" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B210" s="3">
         <v>13.968999999999999</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="211" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B211" s="3">
         <v>13.994999999999999</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="212" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B212" s="3">
         <v>14.092000000000001</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="213" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B213" s="3">
         <v>14.117000000000001</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="214" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B214" s="3">
         <v>14.121</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="215" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B215" s="3">
         <v>14.183999999999999</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="216" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B216" s="3">
         <v>14.199</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="217" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B217" s="3">
         <v>14.201000000000001</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="218" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B218" s="3">
         <v>14.250999999999999</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="219" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B219" s="3">
         <v>14.26</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="220" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B220" s="3">
         <v>14.272</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="221" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B221" s="3">
         <v>14.340999999999999</v>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="222" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B222" s="3">
         <v>14.348000000000001</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="223" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B223" s="3">
         <v>14.371</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="224" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B224" s="3">
         <v>14.413</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="225" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B225" s="3">
         <v>14.417</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="226" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B226" s="3">
         <v>14.417</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="227" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B227" s="3">
         <v>14.491</v>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="228" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B228" s="3">
         <v>14.496</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="229" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B229" s="3">
         <v>14.506</v>
@@ -5188,7 +5188,7 @@
     </row>
     <row r="230" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B230" s="3">
         <v>14.529</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="231" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B231" s="3">
         <v>14.532999999999999</v>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="232" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B232" s="3">
         <v>14.615</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="233" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B233" s="3">
         <v>14.641999999999999</v>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="234" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B234" s="3">
         <v>14.679</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="235" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B235" s="3">
         <v>14.688000000000001</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="236" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B236" s="3">
         <v>14.715999999999999</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="237" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B237" s="3">
         <v>14.733000000000001</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="238" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B238" s="3">
         <v>14.747</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="239" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B239" s="3">
         <v>14.747999999999999</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="240" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B240" s="3">
         <v>14.781000000000001</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="241" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B241" s="3">
         <v>14.823</v>
@@ -5356,7 +5356,7 @@
     </row>
     <row r="242" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B242" s="3">
         <v>14.884</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="243" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B243" s="3">
         <v>14.891</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="244" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B244" s="3">
         <v>14.916</v>
@@ -5398,7 +5398,7 @@
     </row>
     <row r="245" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B245" s="3">
         <v>14.965999999999999</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="246" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B246" s="3">
         <v>14.97</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="247" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B247" s="3">
         <v>15.006</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="248" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B248" s="3">
         <v>15.131</v>
@@ -5454,7 +5454,7 @@
     </row>
     <row r="249" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B249" s="3">
         <v>15.170999999999999</v>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="250" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B250" s="3">
         <v>15.548</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="251" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B251" s="3">
         <v>15.618</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="252" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B252" s="3">
         <v>15.651999999999999</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="253" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B253" s="3">
         <v>15.659000000000001</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="254" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B254" s="3">
         <v>15.683999999999999</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="255" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B255" s="3">
         <v>15.754</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="256" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B256" s="3">
         <v>15.771000000000001</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="257" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B257" s="3">
         <v>15.973000000000001</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="258" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B258" s="3">
         <v>16.009</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="259" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B259" s="3">
         <v>16.202000000000002</v>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="260" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B260" s="3">
         <v>16.266999999999999</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="261" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B261" s="3">
         <v>16.321000000000002</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="262" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B262" s="3">
         <v>16.321999999999999</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="263" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B263" s="3">
         <v>16.373999999999999</v>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="264" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B264" s="3">
         <v>16.513999999999999</v>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="265" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B265" s="3">
         <v>16.571000000000002</v>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="266" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B266" s="3">
         <v>16.61</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="267" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B267" s="3">
         <v>16.617999999999999</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="268" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B268" s="3">
         <v>16.638999999999999</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="269" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B269" s="3">
         <v>16.675000000000001</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="270" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B270" s="3">
         <v>16.693000000000001</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="271" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B271" s="3">
         <v>16.727</v>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="272" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B272" s="3">
         <v>16.788</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="273" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B273" s="3">
         <v>16.79</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="274" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B274" s="3">
         <v>16.812999999999999</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="275" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B275" s="3">
         <v>16.841000000000001</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="276" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B276" s="3">
         <v>16.853999999999999</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="277" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B277" s="3">
         <v>16.908999999999999</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="278" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B278" s="3">
         <v>16.954000000000001</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="279" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B279" s="3">
         <v>17.082999999999998</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="280" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B280" s="3">
         <v>17.106000000000002</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="281" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B281" s="3">
         <v>17.141999999999999</v>
@@ -5916,7 +5916,7 @@
     </row>
     <row r="282" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B282" s="3">
         <v>17.263000000000002</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="283" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B283" s="3">
         <v>17.399000000000001</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="284" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B284" s="3">
         <v>17.456</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="285" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B285" s="3">
         <v>17.513000000000002</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="286" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B286" s="3">
         <v>17.62</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="287" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B287" s="3">
         <v>17.635000000000002</v>
@@ -6000,7 +6000,7 @@
     </row>
     <row r="288" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B288" s="3">
         <v>17.646000000000001</v>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="289" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B289" s="3">
         <v>17.788</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="290" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B290" s="3">
         <v>17.870999999999999</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="291" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B291" s="3">
         <v>17.972000000000001</v>
@@ -6056,7 +6056,7 @@
     </row>
     <row r="292" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B292" s="3">
         <v>17.981000000000002</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="293" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B293" s="3">
         <v>18.353999999999999</v>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="294" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B294" s="3">
         <v>18.359000000000002</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="295" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B295" s="3">
         <v>18.361000000000001</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="296" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B296" s="3">
         <v>18.367000000000001</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="297" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B297" s="3">
         <v>18.417000000000002</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="298" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B298" s="3">
         <v>18.648</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="299" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B299" s="3">
         <v>18.818000000000001</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="300" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B300" s="3">
         <v>18.95</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="301" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B301" s="3">
         <v>18.995999999999999</v>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="302" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B302" s="3">
         <v>19.044</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="303" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B303" s="3">
         <v>19.125</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="304" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B304" s="3">
         <v>19.132999999999999</v>
@@ -6238,7 +6238,7 @@
     </row>
     <row r="305" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B305" s="3">
         <v>19.231000000000002</v>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="306" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B306" s="3">
         <v>19.544</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="307" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B307" s="3">
         <v>19.562999999999999</v>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="308" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B308" s="3">
         <v>19.631</v>
@@ -6294,7 +6294,7 @@
     </row>
     <row r="309" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B309" s="3">
         <v>19.782</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="310" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B310" s="3">
         <v>20.494</v>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="311" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B311" s="3">
         <v>20.555</v>
@@ -6336,7 +6336,7 @@
     </row>
     <row r="312" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B312" s="3">
         <v>20.632000000000001</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="313" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B313" s="3">
         <v>20.692</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="314" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B314" s="3">
         <v>20.709</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="315" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B315" s="3">
         <v>20.709</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="316" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B316" s="3">
         <v>20.716000000000001</v>
@@ -6406,7 +6406,7 @@
     </row>
     <row r="317" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B317" s="3">
         <v>20.858000000000001</v>
@@ -6420,7 +6420,7 @@
     </row>
     <row r="318" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B318" s="3">
         <v>20.898</v>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="319" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B319" s="3">
         <v>20.951000000000001</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="320" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B320" s="3">
         <v>20.975999999999999</v>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="321" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B321" s="3">
         <v>20.983000000000001</v>
@@ -6476,7 +6476,7 @@
     </row>
     <row r="322" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B322" s="3">
         <v>20.995000000000001</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="323" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B323" s="3">
         <v>21.024000000000001</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="324" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B324" s="3">
         <v>21.074000000000002</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="325" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B325" s="3">
         <v>21.103000000000002</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="326" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B326" s="3">
         <v>21.111999999999998</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="327" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B327" s="3">
         <v>21.12</v>
@@ -6560,7 +6560,7 @@
     </row>
     <row r="328" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B328" s="3">
         <v>21.207000000000001</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="329" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B329" s="3">
         <v>21.218</v>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="330" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B330" s="3">
         <v>21.22</v>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="331" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B331" s="3">
         <v>21.22</v>
@@ -6616,7 +6616,7 @@
     </row>
     <row r="332" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B332" s="3">
         <v>21.274000000000001</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="333" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B333" s="3">
         <v>21.276</v>
@@ -6644,7 +6644,7 @@
     </row>
     <row r="334" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B334" s="3">
         <v>21.314</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="335" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B335" s="3">
         <v>21.363</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="336" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B336" s="3">
         <v>21.375</v>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="337" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B337" s="3">
         <v>21.388999999999999</v>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="338" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B338" s="3">
         <v>21.411999999999999</v>
@@ -6714,7 +6714,7 @@
     </row>
     <row r="339" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B339" s="3">
         <v>21.427</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="340" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B340" s="3">
         <v>21.556000000000001</v>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="341" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B341" s="3">
         <v>21.623000000000001</v>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="342" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B342" s="3">
         <v>21.643000000000001</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="343" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B343" s="3">
         <v>21.821999999999999</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="344" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B344" s="3">
         <v>21.893000000000001</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="345" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B345" s="3">
         <v>21.945</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="346" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B346" s="3">
         <v>22.024000000000001</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="347" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B347" s="3">
         <v>22.071999999999999</v>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="348" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B348" s="3">
         <v>22.097999999999999</v>
@@ -6854,7 +6854,7 @@
     </row>
     <row r="349" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B349" s="3">
         <v>22.164999999999999</v>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="350" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B350" s="3">
         <v>22.245000000000001</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="351" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B351" s="3">
         <v>22.266999999999999</v>
@@ -6896,7 +6896,7 @@
     </row>
     <row r="352" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B352" s="3">
         <v>22.334</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="353" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B353" s="3">
         <v>22.343</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="354" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B354" s="3">
         <v>22.356999999999999</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="355" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B355" s="3">
         <v>22.375</v>
@@ -6952,7 +6952,7 @@
     </row>
     <row r="356" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B356" s="3">
         <v>22.411999999999999</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="357" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B357" s="3">
         <v>22.466999999999999</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="358" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B358" s="3">
         <v>22.593</v>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="359" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B359" s="3">
         <v>22.613</v>
@@ -7008,7 +7008,7 @@
     </row>
     <row r="360" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B360" s="3">
         <v>22.728000000000002</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="361" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B361" s="3">
         <v>22.748000000000001</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="362" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B362" s="3">
         <v>22.774000000000001</v>
@@ -7050,7 +7050,7 @@
     </row>
     <row r="363" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B363" s="3">
         <v>22.843</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="364" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B364" s="3">
         <v>22.85</v>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="365" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B365" s="3">
         <v>23.033999999999999</v>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="366" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B366" s="3">
         <v>23.141999999999999</v>
@@ -7106,7 +7106,7 @@
     </row>
     <row r="367" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B367" s="3">
         <v>23.143999999999998</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="368" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B368" s="3">
         <v>23.157</v>
@@ -7134,7 +7134,7 @@
     </row>
     <row r="369" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B369" s="3">
         <v>23.163</v>
@@ -7148,7 +7148,7 @@
     </row>
     <row r="370" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B370" s="3">
         <v>23.187999999999999</v>
@@ -7162,7 +7162,7 @@
     </row>
     <row r="371" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B371" s="3">
         <v>23.231999999999999</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="372" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B372" s="3">
         <v>23.234000000000002</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="373" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B373" s="3">
         <v>23.236000000000001</v>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="374" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B374" s="3">
         <v>23.254999999999999</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="375" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B375" s="3">
         <v>23.274999999999999</v>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="376" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B376" s="3">
         <v>23.327999999999999</v>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="377" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B377" s="3">
         <v>23.344999999999999</v>
@@ -7260,7 +7260,7 @@
     </row>
     <row r="378" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B378" s="3">
         <v>23.353000000000002</v>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="379" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B379" s="3">
         <v>23.48</v>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="380" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B380" s="3">
         <v>23.677</v>
@@ -7302,7 +7302,7 @@
     </row>
     <row r="381" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B381" s="3">
         <v>23.74</v>
@@ -7316,7 +7316,7 @@
     </row>
     <row r="382" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B382" s="3">
         <v>23.766999999999999</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="383" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B383" s="3">
         <v>23.795000000000002</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="384" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B384" s="3">
         <v>23.808</v>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="385" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B385" s="3">
         <v>23.966000000000001</v>
@@ -7372,7 +7372,7 @@
     </row>
     <row r="386" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B386" s="3">
         <v>24.417000000000002</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="387" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B387" s="3">
         <v>24.56</v>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="388" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B388" s="3">
         <v>24.716999999999999</v>
@@ -7414,7 +7414,7 @@
     </row>
     <row r="389" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B389" s="3">
         <v>24.721</v>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="390" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B390" s="3">
         <v>24.997</v>
@@ -7442,7 +7442,7 @@
     </row>
     <row r="391" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B391" s="3">
         <v>25.033999999999999</v>
@@ -7456,7 +7456,7 @@
     </row>
     <row r="392" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B392" s="3">
         <v>25.215</v>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="393" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B393" s="3">
         <v>25.350999999999999</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="394" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B394" s="3">
         <v>25.619</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="395" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B395" s="3">
         <v>25.67</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="396" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B396" s="3">
         <v>25.77</v>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="397" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B397" s="3">
         <v>26.215</v>
@@ -7540,7 +7540,7 @@
     </row>
     <row r="398" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B398" s="3">
         <v>26.251000000000001</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="399" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B399" s="3">
         <v>26.518000000000001</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="400" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B400" s="3">
         <v>26.792000000000002</v>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="401" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B401" s="3">
         <v>27.009</v>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="402" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B402" s="3">
         <v>27.042000000000002</v>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="403" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B403" s="3">
         <v>27.411999999999999</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="404" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B404" s="3">
         <v>27.643999999999998</v>
@@ -7638,7 +7638,7 @@
     </row>
     <row r="405" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B405" s="3">
         <v>27.98</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="406" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B406" s="3">
         <v>28.381</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="407" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B407" s="3">
         <v>28.405999999999999</v>
@@ -7680,7 +7680,7 @@
     </row>
     <row r="408" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B408" s="3">
         <v>28.449000000000002</v>
@@ -7694,7 +7694,7 @@
     </row>
     <row r="409" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B409" s="3">
         <v>28.524999999999999</v>
@@ -7708,7 +7708,7 @@
     </row>
     <row r="410" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B410" s="3">
         <v>28.529</v>
@@ -7722,7 +7722,7 @@
     </row>
     <row r="411" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B411" s="3">
         <v>28.849</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="412" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B412" s="3">
         <v>28.945</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="413" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B413" s="3">
         <v>29.893000000000001</v>
@@ -7764,7 +7764,7 @@
     </row>
     <row r="414" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B414" s="3">
         <v>30.11</v>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="415" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B415" s="3">
         <v>30.262</v>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="416" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B416" s="3">
         <v>30.295000000000002</v>
@@ -7806,7 +7806,7 @@
     </row>
     <row r="417" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B417" s="3">
         <v>30.364999999999998</v>
@@ -7820,7 +7820,7 @@
     </row>
     <row r="418" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B418" s="3">
         <v>30.417000000000002</v>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="419" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B419" s="3">
         <v>31.024000000000001</v>
@@ -7848,7 +7848,7 @@
     </row>
     <row r="420" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B420" s="3">
         <v>31.294</v>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="421" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B421" s="3">
         <v>31.446000000000002</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="422" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B422" s="3">
         <v>31.594999999999999</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="423" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B423" s="3">
         <v>31.61</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="424" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B424" s="3">
         <v>31.614999999999998</v>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="425" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B425" s="3">
         <v>31.780999999999999</v>
@@ -7932,7 +7932,7 @@
     </row>
     <row r="426" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B426" s="3">
         <v>32.292000000000002</v>
@@ -7946,7 +7946,7 @@
     </row>
     <row r="427" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B427" s="3">
         <v>32.680999999999997</v>
@@ -7960,7 +7960,7 @@
     </row>
     <row r="428" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B428" s="3">
         <v>32.802</v>
@@ -7974,7 +7974,7 @@
     </row>
     <row r="429" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B429" s="3">
         <v>33.192</v>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="430" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B430" s="3">
         <v>33.476999999999997</v>
@@ -8002,7 +8002,7 @@
     </row>
     <row r="431" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B431" s="3">
         <v>33.987000000000002</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="432" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B432" s="3">
         <v>34.033999999999999</v>
@@ -8030,7 +8030,7 @@
     </row>
     <row r="433" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B433" s="3">
         <v>34.289000000000001</v>
@@ -8044,7 +8044,7 @@
     </row>
     <row r="434" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B434" s="3">
         <v>34.387</v>
@@ -8058,7 +8058,7 @@
     </row>
     <row r="435" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B435" s="3">
         <v>34.514000000000003</v>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="436" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B436" s="3">
         <v>34.734999999999999</v>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="437" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B437" s="3">
         <v>34.817999999999998</v>
@@ -8100,7 +8100,7 @@
     </row>
     <row r="438" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B438" s="3">
         <v>34.835999999999999</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="439" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B439" s="3">
         <v>34.841000000000001</v>
@@ -8128,7 +8128,7 @@
     </row>
     <row r="440" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B440" s="3">
         <v>34.878999999999998</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="441" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B441" s="3">
         <v>34.975999999999999</v>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="442" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B442" s="3">
         <v>35.417999999999999</v>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="443" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B443" s="3">
         <v>36.618000000000002</v>
@@ -8184,7 +8184,7 @@
     </row>
     <row r="444" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B444" s="3">
         <v>36.978000000000002</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="445" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B445" s="3">
         <v>37.420999999999999</v>
@@ -8212,7 +8212,7 @@
     </row>
     <row r="446" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B446" s="3">
         <v>37.549999999999997</v>
@@ -8226,7 +8226,7 @@
     </row>
     <row r="447" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B447" s="3">
         <v>37.762</v>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="448" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B448" s="3">
         <v>38.418999999999997</v>
@@ -8254,7 +8254,7 @@
     </row>
     <row r="449" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B449" s="3">
         <v>38.569000000000003</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="450" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B450" s="3">
         <v>38.659999999999997</v>
@@ -8282,7 +8282,7 @@
     </row>
     <row r="451" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B451" s="3">
         <v>38.985999999999997</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="452" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B452" s="3">
         <v>39.03</v>
@@ -8310,7 +8310,7 @@
     </row>
     <row r="453" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B453" s="3">
         <v>39.052</v>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="454" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B454" s="3">
         <v>39.335000000000001</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="455" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B455" s="3">
         <v>39.610999999999997</v>
@@ -8352,7 +8352,7 @@
     </row>
     <row r="456" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B456" s="3">
         <v>39.621000000000002</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="457" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B457" s="3">
         <v>39.694000000000003</v>
@@ -8380,7 +8380,7 @@
     </row>
     <row r="458" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B458" s="3">
         <v>40.08</v>
@@ -8394,7 +8394,7 @@
     </row>
     <row r="459" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B459" s="3">
         <v>40.106000000000002</v>
@@ -8408,7 +8408,7 @@
     </row>
     <row r="460" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B460" s="3">
         <v>40.32</v>
@@ -8422,7 +8422,7 @@
     </row>
     <row r="461" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B461" s="3">
         <v>40.619999999999997</v>
@@ -8436,7 +8436,7 @@
     </row>
     <row r="462" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B462" s="3">
         <v>40.704999999999998</v>
@@ -8450,7 +8450,7 @@
     </row>
     <row r="463" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B463" s="3">
         <v>41.176000000000002</v>
@@ -8464,7 +8464,7 @@
     </row>
     <row r="464" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B464" s="3">
         <v>41.640999999999998</v>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="465" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B465" s="3">
         <v>41.713000000000001</v>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="466" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B466" s="3">
         <v>42.89</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="467" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B467" s="3">
         <v>42.987000000000002</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="468" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B468" s="3">
         <v>43.2</v>
@@ -8534,7 +8534,7 @@
     </row>
     <row r="469" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B469" s="3">
         <v>43.552999999999997</v>
@@ -8548,7 +8548,7 @@
     </row>
     <row r="470" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B470" s="3">
         <v>43.625999999999998</v>
@@ -8562,7 +8562,7 @@
     </row>
     <row r="471" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B471" s="3">
         <v>43.704999999999998</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="472" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B472" s="3">
         <v>44.25</v>
@@ -8590,7 +8590,7 @@
     </row>
     <row r="473" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B473" s="3">
         <v>46.225000000000001</v>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="474" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B474" s="3">
         <v>46.48</v>
@@ -8618,7 +8618,7 @@
     </row>
     <row r="475" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B475" s="3">
         <v>46.697000000000003</v>
@@ -8632,7 +8632,7 @@
     </row>
     <row r="476" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B476" s="3">
         <v>46.868000000000002</v>
@@ -8646,7 +8646,7 @@
     </row>
     <row r="477" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B477" s="3">
         <v>47.131</v>
@@ -8660,7 +8660,7 @@
     </row>
     <row r="478" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B478" s="3">
         <v>47.56</v>
@@ -8674,7 +8674,7 @@
     </row>
     <row r="479" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B479" s="3">
         <v>48.506</v>
@@ -8688,7 +8688,7 @@
     </row>
     <row r="480" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B480" s="3">
         <v>49.48</v>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="481" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B481" s="3">
         <v>49.951000000000001</v>
@@ -8716,7 +8716,7 @@
     </row>
     <row r="482" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B482" s="3">
         <v>50.37</v>
@@ -8730,7 +8730,7 @@
     </row>
     <row r="483" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B483" s="3">
         <v>51.189</v>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="484" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B484" s="3">
         <v>53.892000000000003</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="485" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B485" s="3">
         <v>56.457999999999998</v>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="486" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B486" s="3">
         <v>61.808999999999997</v>
@@ -8786,7 +8786,7 @@
     </row>
     <row r="487" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B487" s="3">
         <v>62.073</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="488" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B488" s="3">
         <v>63.585000000000001</v>
@@ -8814,7 +8814,7 @@
     </row>
     <row r="489" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B489" s="3">
         <v>71.563999999999993</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="490" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B490" s="3">
         <v>75.233000000000004</v>
@@ -8842,7 +8842,7 @@
     </row>
     <row r="491" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B491" s="3">
         <v>79.745999999999995</v>
@@ -8856,7 +8856,7 @@
     </row>
     <row r="492" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A492" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B492" s="3">
         <v>89.992999999999995</v>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="493" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B493" s="3">
         <v>137.34100000000001</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="494" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B494" s="3">
         <v>140.88999999999999</v>
@@ -8898,7 +8898,7 @@
     </row>
     <row r="495" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B495" s="3">
         <v>1045.9000000000001</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="496" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B496" s="3">
         <v>1812.0419999999999</v>
@@ -8935,5 +8935,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>